--- a/bin/save_data/editor_templete/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_templete/编辑器_编辑器配置.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="editor_templete" sheetId="2" r:id="rId2"/>
+    <sheet name="editor_templete" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -467,16 +466,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
